--- a/backend/API 리스트.xlsx
+++ b/backend/API 리스트.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\SSAFY\자율\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\SSAFY\자율\자율\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
   <si>
     <t>주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int : 코스 데이터(integer, 0 ~ 3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/tour/place/&lt;int:&gt;/mission/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/tour/calendar/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기존 여행 일정 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/tour/calendar/date/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/review/create/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>title, content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/tour/place/custom/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/tour/&lt;int:&gt;/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/tour/place/custom/&lt;int:&gt;/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int : 커스텀 미션 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,22 +238,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/tour/calendar/date/?date=abc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tour/calendar/date/place/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>patch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/tour/place/&lt;int:&gt;/custom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int : user_pk</t>
   </si>
   <si>
@@ -324,10 +288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용자 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자 정보 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,15 +312,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0 : 미방문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 : 방문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 : 방문예정</t>
+    <t>int : 코스 데이터(integer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tour/place/&lt;int:&gt;/custom/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tour/place/&lt;int:&gt;/custom/&lt;int:&gt;/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보(프로필 페이지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 : 방문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 : 방문예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tour/&lt;int:&gt;/calendar/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tour/&lt;int:&gt;/calendar/date/?date=abc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tour/&lt;int:&gt;/calendar/date/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tour/&lt;int:&gt;/calendar/date/place/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코멘트 정보 get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,15 +385,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -518,22 +530,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -554,29 +557,74 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -859,11 +907,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I34"/>
+  <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -874,61 +920,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="27" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
-        <v>66</v>
+      <c r="A3" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="27" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="8"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="8"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -938,106 +992,104 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="11"/>
+      <c r="B7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="11"/>
+      <c r="B8" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="11"/>
+      <c r="B9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="8"/>
-      <c r="B7" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="9"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>84</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
@@ -1045,57 +1097,57 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="8"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="8"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="8"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="8"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1104,192 +1156,194 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="8"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="8"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="9"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="6" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="E24" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="B27" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="9"/>
-      <c r="B26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>9</v>
@@ -1297,120 +1351,134 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="8"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="8"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="11"/>
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="8"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="8"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>9</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="11"/>
+      <c r="B33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="11"/>
+      <c r="B34" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="9"/>
-      <c r="B34" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="23"/>
+      <c r="E34" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="25"/>
+    </row>
+    <row r="35" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="12"/>
+      <c r="B35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A11:A18"/>
     <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A27:A35"/>
     <mergeCell ref="A3:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/backend/API 리스트.xlsx
+++ b/backend/API 리스트.xlsx
@@ -265,18 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/rest-auth/registration/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username, password1, password2, email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username, email, password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>token</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,6 +349,18 @@
   </si>
   <si>
     <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, password1, password2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest-auth/signup/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,62 +570,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -909,7 +909,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -920,53 +922,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="27" t="s">
-        <v>83</v>
+      <c r="G2" s="22"/>
+      <c r="H2" s="21" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="29" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="27" t="s">
-        <v>84</v>
+        <v>60</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="21" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="11"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>58</v>
       </c>
@@ -974,13 +976,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="11"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="1" t="s">
         <v>59</v>
       </c>
@@ -992,9 +994,9 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="11"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>9</v>
@@ -1004,13 +1006,13 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="11"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>53</v>
@@ -1019,46 +1021,46 @@
         <v>55</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="24"/>
+      <c r="B8" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="24"/>
+      <c r="B9" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="25"/>
+      <c r="B10" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="11"/>
-      <c r="B9" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="12"/>
-      <c r="B10" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
@@ -1068,18 +1070,18 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1089,7 +1091,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
@@ -1097,7 +1099,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="11"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,7 +1115,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="11"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1129,9 +1131,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="11"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -1145,9 +1147,9 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="11"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1161,9 +1163,9 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="11"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -1177,9 +1179,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="11"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>53</v>
@@ -1193,9 +1195,9 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="12"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>50</v>
@@ -1209,137 +1211,137 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="27"/>
+      <c r="B20" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="27"/>
+      <c r="B21" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="27"/>
+      <c r="B22" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="27"/>
+      <c r="B23" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="27"/>
+      <c r="B24" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="18" t="s">
+      <c r="C24" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="18" t="s">
+      <c r="D24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="27"/>
+      <c r="B25" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="28"/>
+      <c r="B26" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="18" t="s">
+      <c r="D26" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1355,7 +1357,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="11"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1371,7 +1373,7 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="11"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1387,7 +1389,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="11"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1403,7 +1405,7 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="11"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1417,21 +1419,21 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="11"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="11"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="1" t="s">
         <v>52</v>
       </c>
@@ -1445,21 +1447,21 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="11"/>
-      <c r="B34" s="24" t="s">
+      <c r="A34" s="24"/>
+      <c r="B34" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23" t="s">
+      <c r="D34" s="17"/>
+      <c r="E34" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="25"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="12"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="8" t="s">
         <v>47</v>
       </c>

--- a/backend/API 리스트.xlsx
+++ b/backend/API 리스트.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
   <si>
     <t>주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,10 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>코멘트 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유저</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,9 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용자 my images</t>
-  </si>
-  <si>
     <t>/user/&lt;int:&gt;/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,87 +273,92 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이미지 파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이 이미지 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/user/&lt;int:&gt;/visited/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/user/&lt;int:&gt;/myimages/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>int : 코스 데이터(integer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tour/place/&lt;int:&gt;/custom/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tour/place/&lt;int:&gt;/custom/&lt;int:&gt;/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보(프로필 페이지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 : 방문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 : 방문예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tour/&lt;int:&gt;/calendar/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tour/&lt;int:&gt;/calendar/date/?date=abc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tour/&lt;int:&gt;/calendar/date/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tour/&lt;int:&gt;/calendar/date/place/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코멘트 정보 get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, password1, password2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest-auth/signup/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/&lt;int:&gt;/visited/</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
   <si>
     <t>방문한 지역들, 방문할 지역들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int : 코스 데이터(integer)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tour/place/&lt;int:&gt;/custom/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tour/place/&lt;int:&gt;/custom/&lt;int:&gt;/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 정보(프로필 페이지)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 : 방문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 : 방문예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tour/&lt;int:&gt;/calendar/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tour/&lt;int:&gt;/calendar/date/?date=abc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tour/&lt;int:&gt;/calendar/date/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tour/&lt;int:&gt;/calendar/date/place/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코멘트 정보 get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, password1, password2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rest-auth/signup/</t>
+  </si>
+  <si>
+    <t>방문예정 지역 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int : user_pk, 방문 지역 정보(char, list)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문완료 지역으로 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +383,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +402,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -536,7 +540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -588,15 +592,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -626,6 +621,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -907,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I35"/>
+  <dimension ref="A2:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -940,51 +938,51 @@
       <c r="F2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="21" t="s">
-        <v>80</v>
+      <c r="G2" s="19"/>
+      <c r="H2" s="18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="29" t="s">
-        <v>57</v>
+      <c r="A3" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="21" t="s">
-        <v>81</v>
+        <v>59</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="24"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="24"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -994,9 +992,9 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="24"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>9</v>
@@ -1006,13 +1004,13 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="24"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>53</v>
@@ -1021,67 +1019,71 @@
         <v>55</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="24"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="H8" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="24"/>
-      <c r="B9" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
-        <v>61</v>
-      </c>
+      <c r="D9" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="25"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>74</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1091,7 +1093,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
@@ -1099,7 +1101,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="24"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1115,7 +1117,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="24"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1131,9 +1133,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="24"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -1147,9 +1149,9 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="24"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1163,9 +1165,9 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="24"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -1179,9 +1181,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="24"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>53</v>
@@ -1195,9 +1197,9 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="25"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>50</v>
@@ -1211,11 +1213,11 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>9</v>
@@ -1229,9 +1231,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="27"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>9</v>
@@ -1245,9 +1247,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="27"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>4</v>
@@ -1261,9 +1263,9 @@
       <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="27"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>53</v>
@@ -1277,9 +1279,9 @@
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="27"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>50</v>
@@ -1293,9 +1295,9 @@
       <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="27"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>4</v>
@@ -1309,9 +1311,9 @@
       <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="27"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>51</v>
@@ -1325,9 +1327,9 @@
       <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="28"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>50</v>
@@ -1341,7 +1343,7 @@
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="26" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1357,7 +1359,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="24"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1373,7 +1375,7 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="24"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,7 +1391,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="24"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1405,7 +1407,7 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="24"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1419,21 +1421,21 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="24"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="24"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="1" t="s">
         <v>52</v>
       </c>
@@ -1446,41 +1448,27 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="24"/>
-      <c r="B34" s="18" t="s">
+    <row r="34" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="22"/>
+      <c r="B34" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="19"/>
-    </row>
-    <row r="35" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="25"/>
-      <c r="B35" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F34" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A11:A18"/>
     <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="A27:A34"/>
     <mergeCell ref="A3:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/backend/API 리스트.xlsx
+++ b/backend/API 리스트.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="89">
   <si>
     <t>주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,14 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/tour/place/&lt;int:&gt;/mission/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tour/place/&lt;int:&gt;/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여행일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,14 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장소명, 날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일정 장소 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일정 장소 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기존 날짜, 변경 날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기존 일정의 날짜 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,14 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/review/&lt;int:&gt;/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int : 리뷰 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>해당 리뷰의 detail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,26 +150,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/tour/&lt;int:&gt;/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여행지 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int : 여행지 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여행지 미션 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int : 커스텀 미션 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유저의 커스텀 미션 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,14 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/review/&lt;int:&gt;/comment/&lt;int:&gt;/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int: 코멘트 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코멘트 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,25 +178,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>put</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/review/&lt;int:&gt;/comment/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>patch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int : user_pk</t>
-  </si>
-  <si>
-    <t>int : user_pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유저</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,30 +198,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/user/&lt;int:&gt;/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자 정보 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/user/&lt;int:&gt;/visited/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int : 코스 데이터(integer)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tour/place/&lt;int:&gt;/custom/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tour/place/&lt;int:&gt;/custom/&lt;int:&gt;/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자 정보(프로필 페이지)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,22 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/tour/&lt;int:&gt;/calendar/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tour/&lt;int:&gt;/calendar/date/?date=abc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tour/&lt;int:&gt;/calendar/date/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tour/&lt;int:&gt;/calendar/date/place/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코멘트 정보 get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,9 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/user/&lt;int:&gt;/visited/</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
@@ -354,11 +248,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int : user_pk, 방문 지역 정보(char, list)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방문완료 지역으로 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 그룹 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 정보, 멤버 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹원에게 공지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지할 내용, 그룹장만 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 그룹 조회 ( 일정, 멤버 등 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/review/&lt;int:review_pk&gt;/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/review/&lt;int:review_pk&gt;/comment/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/review/&lt;int:review_pk&gt;/comment/&lt;int:comment_pk&gt;/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/group/&lt;int:user_pk&gt;/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/group/&lt;int:user_pk&gt;/&lt;int:group_pk&gt;/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/group/&lt;int:user_pk&gt;/&lt;int:group_pk&gt;/notice/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/&lt;int:user_pk&gt;/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문 지역 정보(char, list)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/&lt;int:user_pk&gt;/visited/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/&lt;int:user_pk&gt;/visited/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tour/place/&lt;int:place_id&gt;/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tour/place/&lt;int:place_id&gt;/mission/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tour/place/&lt;int:user_id&gt;/custom/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tour/place/&lt;int:user_id&gt;/custom/&lt;int:custom_id&gt;/</t>
+  </si>
+  <si>
+    <t>/tour/place/&lt;int:user_id&gt;/custom/&lt;int:custom_id&gt;/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/calendar/&lt;int:user_pk&gt;/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/calendar/&lt;int:user_pk&gt;/&lt;str:date&gt;/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/calendar/&lt;int:user_pk&gt;/&lt;str:date&gt;/place/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/calendar/&lt;int:user_pk&gt;/&lt;str:date&gt;/place/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tour/&lt;int:course_id&gt;/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +557,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -604,6 +621,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -622,7 +642,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -905,15 +937,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I34"/>
+  <dimension ref="A2:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="35.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.8984375" customWidth="1"/>
     <col min="4" max="4" width="36.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.69921875" customWidth="1"/>
     <col min="6" max="6" width="40.5" bestFit="1" customWidth="1"/>
@@ -933,56 +965,56 @@
         <v>1</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="18" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="26" t="s">
-        <v>56</v>
+      <c r="A3" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="18" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -992,90 +1024,84 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="7" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="7" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="22"/>
+      <c r="B8" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="22"/>
+      <c r="B9" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="21"/>
-      <c r="B8" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="21"/>
-      <c r="B9" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="9"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="3" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="9"/>
@@ -1083,75 +1109,67 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="21"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1160,316 +1178,393 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="21"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="3" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="23" t="s">
-        <v>12</v>
+      <c r="A19" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>55</v>
-      </c>
+      <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="24"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="13" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="24"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="13" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="D21" s="13"/>
       <c r="E21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="25"/>
+      <c r="B22" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="25"/>
+      <c r="B23" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="24"/>
-      <c r="B22" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="24"/>
-      <c r="B23" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="24"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="13" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="26"/>
+      <c r="B25" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="24"/>
-      <c r="B25" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="25"/>
-      <c r="B26" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="15" t="s">
+      <c r="C26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="22"/>
+      <c r="B28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="22"/>
+      <c r="B29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="22"/>
+      <c r="B30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="22"/>
+      <c r="B31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>9</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="21"/>
-      <c r="B28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="21"/>
-      <c r="B29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="21"/>
-      <c r="B30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="21"/>
-      <c r="B31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="22"/>
+      <c r="B32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="21"/>
-      <c r="B32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="17" t="s">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="23"/>
+      <c r="B33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="29"/>
+      <c r="B35" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="29"/>
+      <c r="B36" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="21"/>
-      <c r="B33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="C36" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="29"/>
+      <c r="B37" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="31"/>
+      <c r="B38" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="32"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="31"/>
+      <c r="B39" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="22"/>
-      <c r="B34" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="4"/>
+      <c r="D39" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="32"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+    </row>
+    <row r="41" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="30"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="A26:A33"/>
     <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A34:A41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/API 리스트.xlsx
+++ b/backend/API 리스트.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
   <si>
     <t>주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>특정 날짜의 여행 일정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,54 +248,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>변경 날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장소명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 그룹 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정 정보, 멤버 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹원에게 공지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지할 내용, 그룹장만 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 그룹 조회 ( 일정, 멤버 등 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/review/&lt;int:review_pk&gt;/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,18 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/group/&lt;int:user_pk&gt;/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/group/&lt;int:user_pk&gt;/&lt;int:group_pk&gt;/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/group/&lt;int:user_pk&gt;/&lt;int:group_pk&gt;/notice/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/user/&lt;int:user_pk&gt;/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,11 +311,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/calendar/&lt;int:user_pk&gt;/&lt;str:date&gt;/place/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/tour/&lt;int:course_id&gt;/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title, date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/calendar/&lt;int:user_pk&gt;/&lt;str:date&gt;/&lt;int:user_pk&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 날짜의 여행 일정, 여행지 정보, 소속 유저들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int : 작성하는 유저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str : 날짜 ( 0000 - 00 - 00 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int : 초대받는 유저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정에 유저 초대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정에서 유저 탈퇴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +533,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -594,21 +570,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -630,31 +591,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -937,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I41"/>
+  <dimension ref="A2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -965,56 +932,56 @@
         <v>1</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="18" t="s">
-        <v>48</v>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="27" t="s">
-        <v>39</v>
+      <c r="A3" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="22"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="22"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1024,9 +991,9 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="22"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="7" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>9</v>
@@ -1034,74 +1001,74 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="22"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="7" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="22"/>
-      <c r="B8" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="21" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21" t="s">
+      <c r="G8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="17"/>
+      <c r="B9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="22"/>
-      <c r="B9" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="9"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="23"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="9"/>
@@ -1109,11 +1076,11 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>9</v>
@@ -1125,9 +1092,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="22"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -1135,13 +1102,13 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="22"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -1149,13 +1116,13 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="22"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -1163,13 +1130,13 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="22"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1178,14 +1145,14 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="22"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -1193,378 +1160,315 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="22"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="18"/>
+      <c r="B18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="23"/>
-      <c r="B18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="E18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="25"/>
-      <c r="B20" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="25"/>
-      <c r="B21" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="D22" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="24"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13" t="s">
+      <c r="D24" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="25"/>
-      <c r="B22" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="25"/>
-      <c r="B23" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="25"/>
-      <c r="B24" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="13" t="s">
+      <c r="F24" s="24"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="26"/>
-      <c r="B25" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="16"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="A26" s="22"/>
+      <c r="B26" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="22"/>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="29"/>
+    </row>
+    <row r="28" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="1" t="s">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="17"/>
+      <c r="B30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="17"/>
+      <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="17"/>
+      <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="22"/>
-      <c r="B28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="22"/>
-      <c r="B29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="17"/>
+      <c r="B33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="22"/>
-      <c r="B30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="22"/>
-      <c r="B31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="22"/>
-      <c r="B32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="23"/>
-      <c r="B33" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>72</v>
+      <c r="A34" s="17"/>
+      <c r="B34" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="29"/>
-      <c r="B35" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="13" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="29"/>
-      <c r="B36" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="13" t="s">
+      <c r="D35" s="7"/>
+      <c r="E35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="18"/>
+      <c r="B36" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="29"/>
-      <c r="B37" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="31"/>
-      <c r="B38" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38" s="32"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="31"/>
-      <c r="B39" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="32"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-    </row>
-    <row r="41" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="30"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
+      <c r="C36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="A29:A36"/>
     <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A34:A41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/API 리스트.xlsx
+++ b/backend/API 리스트.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="87">
   <si>
     <t>주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,30 +303,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/calendar/&lt;int:user_pk&gt;/&lt;str:date&gt;/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/calendar/&lt;int:user_pk&gt;/&lt;str:date&gt;/place/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/tour/&lt;int:course_id&gt;/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>title, date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/calendar/&lt;int:user_pk&gt;/&lt;str:date&gt;/&lt;int:user_pk&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>특정 날짜의 여행 일정, 여행지 정보, 소속 유저들</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,10 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>str : 날짜 ( 0000 - 00 - 00 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int : 초대받는 유저</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,6 +332,41 @@
   </si>
   <si>
     <t>일정에서 유저 탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/achievements/&lt;int:user_pk&gt;/</t>
+  </si>
+  <si>
+    <t>/achievements/&lt;int:user_pk&gt;/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 업적 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/calendar/&lt;int:user_pk&gt;/&lt;int:schedule_pk&gt;/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int : 스케쥴 pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/calendar/&lt;int:user_pk&gt;/&lt;int:schedule_pk&gt;/place/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/calendar/&lt;int:user_pk&gt;/&lt;int:schedule_pk&gt;/&lt;int:user_pk&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +548,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -585,43 +600,46 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -904,15 +922,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I36"/>
+  <dimension ref="A2:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="45.8984375" customWidth="1"/>
+    <col min="2" max="2" width="51.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.69921875" customWidth="1"/>
     <col min="6" max="6" width="40.5" bestFit="1" customWidth="1"/>
@@ -943,7 +961,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="29" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -965,7 +983,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="17"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
@@ -979,7 +997,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="17"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
@@ -991,7 +1009,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="17"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="7" t="s">
         <v>60</v>
       </c>
@@ -1005,7 +1023,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="17"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="7" t="s">
         <v>60</v>
       </c>
@@ -1019,7 +1037,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="17"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="16" t="s">
         <v>62</v>
       </c>
@@ -1039,7 +1057,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="17"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="16" t="s">
         <v>62</v>
       </c>
@@ -1057,7 +1075,7 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="18"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="3" t="s">
         <v>63</v>
       </c>
@@ -1076,11 +1094,11 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>9</v>
@@ -1092,7 +1110,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="17"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="1" t="s">
         <v>64</v>
       </c>
@@ -1106,7 +1124,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="17"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="1" t="s">
         <v>65</v>
       </c>
@@ -1120,7 +1138,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="17"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="1" t="s">
         <v>66</v>
       </c>
@@ -1134,7 +1152,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="17"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="1" t="s">
         <v>66</v>
       </c>
@@ -1150,7 +1168,7 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="17"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="1" t="s">
         <v>68</v>
       </c>
@@ -1164,7 +1182,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="17"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="1" t="s">
         <v>67</v>
       </c>
@@ -1180,7 +1198,7 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="18"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="3" t="s">
         <v>67</v>
       </c>
@@ -1196,157 +1214,157 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21" t="s">
+      <c r="D19" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="23" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="27"/>
+      <c r="B21" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23" t="s">
+      <c r="D21" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="27"/>
+      <c r="B22" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="27"/>
+      <c r="B23" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="27"/>
+      <c r="B24" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="27"/>
+      <c r="B25" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="27"/>
+      <c r="B26" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="22" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="24"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="23" t="s">
+      <c r="F26" s="23"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="27"/>
+      <c r="B27" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="24"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="29"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="28" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="29"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="29"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="27"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -1362,7 +1380,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="17"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
@@ -1378,7 +1396,7 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="17"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1392,7 +1410,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="17"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="1" t="s">
         <v>57</v>
       </c>
@@ -1408,7 +1426,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="17"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="1" t="s">
         <v>57</v>
       </c>
@@ -1422,7 +1440,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="17"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="1" t="s">
         <v>58</v>
       </c>
@@ -1436,7 +1454,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="17"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="1" t="s">
         <v>58</v>
       </c>
@@ -1450,7 +1468,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="18"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="8" t="s">
         <v>59</v>
       </c>
@@ -1463,12 +1481,43 @@
       </c>
       <c r="F36" s="4"/>
     </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="25"/>
+      <c r="B38" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A11:A18"/>
     <mergeCell ref="A19:A28"/>
     <mergeCell ref="A29:A36"/>
     <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/API 리스트.xlsx
+++ b/backend/API 리스트.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\SSAFY\자율\자율\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\Desktop\1109\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="89">
   <si>
     <t>주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,308 +66,294 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커스텀 미션 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/review/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 리뷰의 detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title, content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커스텀 미션 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커스텀 미션 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 미션 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 커스텀 미션 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커스텀 미션 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코멘트 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코멘트 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest-auth/login/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest-auth/logout/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보(프로필 페이지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 : 방문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 : 방문예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코멘트 정보 get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, password1, password2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest-auth/signup/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>방문한 지역들, 방문할 지역들</t>
+  </si>
+  <si>
+    <t>방문예정 지역 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문완료 지역으로 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/review/&lt;int:review_pk&gt;/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/review/&lt;int:review_pk&gt;/comment/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/review/&lt;int:review_pk&gt;/comment/&lt;int:comment_pk&gt;/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/&lt;int:user_pk&gt;/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문 지역 정보(char, list)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/&lt;int:user_pk&gt;/visited/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/&lt;int:user_pk&gt;/visited/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tour/place/&lt;int:place_id&gt;/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tour/place/&lt;int:place_id&gt;/mission/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tour/place/&lt;int:user_id&gt;/custom/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tour/place/&lt;int:user_id&gt;/custom/&lt;int:custom_id&gt;/</t>
+  </si>
+  <si>
+    <t>/tour/place/&lt;int:user_id&gt;/custom/&lt;int:custom_id&gt;/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tour/&lt;int:course_id&gt;/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/achievements/&lt;int:user_pk&gt;/</t>
+  </si>
+  <si>
+    <t>/achievements/&lt;int:user_pk&gt;/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 업적 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>여행일정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/calendar/&lt;int:user_pk&gt;/</t>
+  </si>
+  <si>
+    <t>user_pk가 0 -&gt; 전체 목록, 아니면 특정 user 스케쥴 조회</t>
   </si>
   <si>
     <t>기존 여행 일정 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커스텀 미션 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>title, date</t>
   </si>
   <si>
     <t>특정 날짜 일정 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/calendar/&lt;int:user_pk&gt;/&lt;int:schedule_pk&gt;/</t>
+  </si>
+  <si>
+    <t>특정 스케줄 상세조회</t>
+  </si>
+  <si>
+    <t>특정 날짜의 여행 일정, 여행지 정보, 소속 유저들</t>
+  </si>
+  <si>
+    <t>patch</t>
+  </si>
+  <si>
+    <t>기존 일정의 날짜 변경</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>해당 날짜의 일정 전체 삭제</t>
+  </si>
+  <si>
+    <t>/calendar/&lt;int:place_pk&gt;/&lt;int:schedule_pk&gt;/place/</t>
+  </si>
+  <si>
+    <t>장소명</t>
   </si>
   <si>
     <t>일정 장소 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>일정 장소 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존 일정의 날짜 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 날짜의 일정 전체 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/review/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 리뷰의 detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title, content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커스텀 미션 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커스텀 미션 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지 미션 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저의 커스텀 미션 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커스텀 미션 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코멘트 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코멘트 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>patch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rest-auth/login/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rest-auth/logout/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 정보(프로필 페이지)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 : 방문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 : 방문예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코멘트 정보 get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, password1, password2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rest-auth/signup/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>방문한 지역들, 방문할 지역들</t>
-  </si>
-  <si>
-    <t>방문예정 지역 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방문완료 지역으로 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장소명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/review/&lt;int:review_pk&gt;/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/review/&lt;int:review_pk&gt;/comment/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/review/&lt;int:review_pk&gt;/comment/&lt;int:comment_pk&gt;/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/&lt;int:user_pk&gt;/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방문 지역 정보(char, list)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/&lt;int:user_pk&gt;/visited/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/&lt;int:user_pk&gt;/visited/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tour/place/&lt;int:place_id&gt;/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tour/place/&lt;int:place_id&gt;/mission/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tour/place/&lt;int:user_id&gt;/custom/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tour/place/&lt;int:user_id&gt;/custom/&lt;int:custom_id&gt;/</t>
-  </si>
-  <si>
-    <t>/tour/place/&lt;int:user_id&gt;/custom/&lt;int:custom_id&gt;/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/calendar/&lt;int:user_pk&gt;/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tour/&lt;int:course_id&gt;/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title, date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 날짜의 여행 일정, 여행지 정보, 소속 유저들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int : 작성하는 유저</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/calendar/&lt;int:user_pk&gt;/&lt;int:schedule_pk&gt;/invite</t>
   </si>
   <si>
     <t>int : 초대받는 유저</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>일정에 유저 초대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>일정에서 유저 탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/achievements/&lt;int:user_pk&gt;/</t>
-  </si>
-  <si>
-    <t>/achievements/&lt;int:user_pk&gt;/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저의 업적 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업적 정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/calendar/&lt;int:user_pk&gt;/&lt;int:schedule_pk&gt;/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int : 스케쥴 pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/calendar/&lt;int:user_pk&gt;/&lt;int:schedule_pk&gt;/place/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/calendar/&lt;int:user_pk&gt;/&lt;int:schedule_pk&gt;/&lt;int:user_pk&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -621,26 +607,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -950,56 +936,56 @@
         <v>1</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="29" t="s">
-        <v>38</v>
+      <c r="A3" s="30" t="s">
+        <v>31</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="24"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="24"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1009,9 +995,9 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="24"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>9</v>
@@ -1019,74 +1005,74 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="24"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="24"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="24"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="9"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="25"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="9"/>
@@ -1094,11 +1080,11 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>9</v>
@@ -1110,9 +1096,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="24"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -1120,13 +1106,13 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="24"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -1134,13 +1120,13 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="24"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -1148,13 +1134,13 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="24"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1163,14 +1149,14 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="24"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -1178,185 +1164,185 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="24"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="25"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="26" t="s">
-        <v>10</v>
-      </c>
       <c r="B19" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>69</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>74</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="27"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="30"/>
+        <v>73</v>
+      </c>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="27"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="18" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="25"/>
+      <c r="B22" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="27"/>
-      <c r="B22" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="E22" s="18" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="27"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="18" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="27"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="25"/>
+      <c r="B25" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="25"/>
+      <c r="B26" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="27"/>
-      <c r="B25" s="18" t="s">
+      <c r="C26" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="23"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="25"/>
+      <c r="B27" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="23"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="27"/>
-      <c r="B26" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="23"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="27"/>
-      <c r="B27" s="18" t="s">
-        <v>86</v>
-      </c>
       <c r="C27" s="22" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="28"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -1364,11 +1350,11 @@
       <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="29" t="s">
-        <v>19</v>
+      <c r="A29" s="30" t="s">
+        <v>12</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>9</v>
@@ -1376,29 +1362,29 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="24"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="24"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
@@ -1406,87 +1392,87 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="24"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="24"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="24"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="24"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="25"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="29" t="s">
-        <v>78</v>
+      <c r="A37" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>9</v>
@@ -1494,27 +1480,26 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="25"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="8" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F38" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A19:A28"/>
     <mergeCell ref="A29:A36"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A37:A38"/>
